--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sostdc1-Lrp5.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N2">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q2">
-        <v>6.406236651172222</v>
+        <v>15.47937982622778</v>
       </c>
       <c r="R2">
-        <v>57.65612986055</v>
+        <v>139.31441843605</v>
       </c>
       <c r="S2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="T2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q3">
-        <v>9.775073568288887</v>
+        <v>9.775073568288889</v>
       </c>
       <c r="R3">
-        <v>87.97566211459998</v>
+        <v>87.9756621146</v>
       </c>
       <c r="S3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="T3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q4">
         <v>6.2800401274</v>
       </c>
       <c r="R4">
-        <v>56.52036114659999</v>
+        <v>56.5203611466</v>
       </c>
       <c r="S4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="T4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
     </row>
   </sheetData>
